--- a/projects/11/django-awesome/3_web_api/jinja vs DRF.xlsx
+++ b/projects/11/django-awesome/3_web_api/jinja vs DRF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\projects\11\django-awesome\3_web_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F90CDAD-2F5B-46D8-9EF3-B04CD02E7716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B39647-5229-4AC9-BAE0-00906B052C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Django ORM(models.objects.Create…, миграции, сущности)</t>
   </si>
@@ -103,13 +103,27 @@
   </si>
   <si>
     <t>Всё включено</t>
+  </si>
+  <si>
+    <t>Gin(Go)</t>
+  </si>
+  <si>
+    <t>в 100 раз быстрее Python</t>
+  </si>
+  <si>
+    <t>Laravel(PHP)</t>
+  </si>
+  <si>
+    <t>* Легаси
+* Синтаксис
+* У него упор на веб</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +153,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,9 +375,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,14 +401,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
@@ -683,56 +708,70 @@
     <col min="1" max="1" width="144.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="123.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" customWidth="1"/>
     <col min="5" max="5" width="48.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+    <col min="7" max="7" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="F1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="140.4" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="67.2" x14ac:dyDescent="0.65">
+      <c r="F2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.2" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -740,12 +779,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -753,48 +792,48 @@
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="67.2" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:7" ht="67.2" x14ac:dyDescent="0.65">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -805,7 +844,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -816,46 +855,46 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="B16" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
